--- a/DB_Schema.xlsx
+++ b/DB_Schema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\TGV_Client\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\AppData\Local\Packages\CanonicalGroupLimited.UbuntuonWindows_79rhkp1fndgsc\LocalState\rootfs\home\round\TGV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864948AB-0949-4EE2-8203-CC2DC07FA8A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC5ED26-5365-4E6E-92DA-865CFB36AB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FB59BB2B-8404-41B3-AECE-69B181E62369}"/>
+    <workbookView xWindow="-60" yWindow="390" windowWidth="16635" windowHeight="11385" xr2:uid="{FB59BB2B-8404-41B3-AECE-69B181E62369}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
   <si>
     <t>TGV Project DB Schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,30 +99,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>no</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"0"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상영관 번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>row</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>행 좌석 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>column</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>열 좌석 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -233,6 +216,54 @@
   </si>
   <si>
     <t>Table 관계도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Not Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto Increment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nothing'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater_no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater_row</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theater_column</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +317,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -309,13 +340,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -328,16 +388,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -361,15 +442,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>651164</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>246953</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>39457</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -393,8 +474,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6636328" y="5250872"/>
-          <a:ext cx="5580952" cy="2990476"/>
+          <a:off x="9968346" y="1607126"/>
+          <a:ext cx="5761062" cy="2796513"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -710,648 +791,873 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94A393F-D506-45DD-9BD1-D8D4E62E524B}">
-  <dimension ref="B3:R28"/>
+  <dimension ref="B3:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="8.796875" style="1"/>
-    <col min="11" max="14" width="8.796875" style="1"/>
+    <col min="2" max="3" width="8.75" style="1"/>
+    <col min="4" max="4" width="12.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="4" customWidth="1"/>
+    <col min="9" max="12" width="8.75" style="1"/>
+    <col min="14" max="17" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="K6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B8" s="3" t="s">
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="N6" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>8</v>
+      <c r="E8" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="K8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="3"/>
-      <c r="M8" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="3"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="7"/>
       <c r="D9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="H9" s="3"/>
+      <c r="I9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="K9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" s="3"/>
-      <c r="M9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B10" s="3" t="s">
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="K10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="L10" s="3"/>
-      <c r="M10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B11" s="3" t="s">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="C11" s="7"/>
+      <c r="D11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="K11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B12" s="3" t="s">
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="I12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="K12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="K14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B16" s="3" t="s">
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>8</v>
+      <c r="E16" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="K16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="3"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7"/>
       <c r="D17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="H17" s="3"/>
+      <c r="I17" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="K17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="O17" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="3"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="7"/>
       <c r="D18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="K18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="O18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="3"/>
+      <c r="H18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="7"/>
       <c r="D19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="K19" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3"/>
+      <c r="I19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="7"/>
       <c r="D20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="K20" s="3" t="s">
+      <c r="I20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4" t="s">
+      <c r="F24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B22" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="K22" s="5" t="s">
+      <c r="G24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B24" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="H24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="3"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="7"/>
       <c r="D25" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="3"/>
+      <c r="I25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="7"/>
       <c r="D26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F26" s="3" t="s">
+      <c r="E26" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B27" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="3"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="7"/>
       <c r="D27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B28" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="3"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="7"/>
       <c r="D28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B33" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H33" s="3"/>
+      <c r="I33" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="3"/>
+      <c r="G34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="3"/>
+      <c r="I34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B35" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="2">
+        <v>1</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="2"/>
+      <c r="I41" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="2"/>
+      <c r="I42" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="2">
+        <v>0</v>
+      </c>
+      <c r="I43" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="2">
+        <v>0</v>
+      </c>
+      <c r="I44" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="B3:F4"/>
-    <mergeCell ref="B6:I7"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="N6:U7"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="B38:L39"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="B30:L31"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="B22:L23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B14:L15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="B6:L7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="I8:L8"/>
     <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="B14:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:I27"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="B22:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="O16:R16"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="F28:I28"/>
-    <mergeCell ref="K6:R7"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="O8:R8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="O10:R10"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:I26"/>
-    <mergeCell ref="O11:R11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="O12:R12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:R15"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="K22:R23"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="O17:R17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="O18:R18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="I9:L9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DB_Schema.xlsx
+++ b/DB_Schema.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\AppData\Local\Packages\CanonicalGroupLimited.UbuntuonWindows_79rhkp1fndgsc\LocalState\rootfs\home\round\TGV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC5ED26-5365-4E6E-92DA-865CFB36AB76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246DEC2F-7B3F-4195-B9BA-D0810C648960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="390" windowWidth="16635" windowHeight="11385" xr2:uid="{FB59BB2B-8404-41B3-AECE-69B181E62369}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="61">
   <si>
     <t>TGV Project DB Schema</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,18 @@
   </si>
   <si>
     <t>theater_column</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예매 ID / ON DELETE CASCADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화 ID / ON DELETE CASCADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상영관 ID / ON DELETE CASCADE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -420,6 +432,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -793,8 +808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94A393F-D506-45DD-9BD1-D8D4E62E524B}">
   <dimension ref="B3:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,7 +820,7 @@
     <col min="6" max="6" width="15.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.75" style="4" customWidth="1"/>
-    <col min="9" max="12" width="8.75" style="1"/>
+    <col min="9" max="12" width="8.75" style="15"/>
     <col min="14" max="17" width="8.75" style="1"/>
   </cols>
   <sheetData>
@@ -897,12 +912,12 @@
       <c r="H8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
@@ -1075,12 +1090,12 @@
         <v>5</v>
       </c>
       <c r="H17" s="3"/>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
@@ -1098,12 +1113,12 @@
       <c r="H18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
@@ -1121,12 +1136,12 @@
       <c r="H19" s="2">
         <v>0</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
@@ -1144,12 +1159,12 @@
       <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="6" t="s">
@@ -1224,12 +1239,12 @@
         <v>5</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="7" t="s">
+      <c r="I25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
@@ -1247,12 +1262,12 @@
         <v>23</v>
       </c>
       <c r="H26" s="3"/>
-      <c r="I26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
+      <c r="I26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
@@ -1270,12 +1285,12 @@
         <v>23</v>
       </c>
       <c r="H27" s="3"/>
-      <c r="I27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
+      <c r="I27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
@@ -1293,12 +1308,12 @@
       <c r="H28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B30" s="11" t="s">
@@ -1546,7 +1561,7 @@
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="8" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
